--- a/REVER_DailyTracker_20200917.xlsx
+++ b/REVER_DailyTracker_20200917.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271258B-9603-4F04-9549-D22ACD31D0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7913D41-C311-4093-9F7F-DD8B38B32A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1235,7 +1235,9 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>44091</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
